--- a/CSVFile/Content/Data/students.xlsx
+++ b/CSVFile/Content/Data/students.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mySheet" sheetId="1" r:id="R3d99e42495264c19"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mySheet" sheetId="1" r:id="Rc1e51b181d2342e4"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -30,7 +30,7 @@
         <x:v>0001-01-01 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>d5306314-73ac-41a3-8a9c-754e86f7e6d0</x:v>
+        <x:v>f42d913f-101a-414c-a3aa-1a6bd9585883</x:v>
       </x:c>
     </x:row>
     <x:row r="2">
@@ -53,7 +53,7 @@
         <x:v>1971-11-29 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>8222a467-1643-4897-ac76-3859a7e0c9ee</x:v>
+        <x:v>5da31193-39e2-4ae1-a454-83e79b0cdca5</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
@@ -76,7 +76,7 @@
         <x:v>1977-11-14 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>57336000-1c6b-4bfe-8ffc-01949a7a488c</x:v>
+        <x:v>4d6b7713-4cfc-430b-878c-5e6d38e0249e</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
@@ -99,7 +99,7 @@
         <x:v>1990-11-14 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>b454eb10-6bfa-42db-9422-1326e51ea8da</x:v>
+        <x:v>1e1a41c0-9b9a-4585-8bbd-4cb16c943f26</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -122,11 +122,57 @@
         <x:v>1991-11-19 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>f7474900-d7f4-4acb-8479-33778a577f6b</x:v>
+        <x:v>6f1a0ce7-c85d-45a2-97a1-6e2c237fc644</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
       <x:c t="str">
+        <x:v>Sukanya</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Chulliparambil</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>200425170</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2019</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0001-01-01 12:00:00 AM</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>f93acbbb-28f3-44c1-a1fd-8a259a0ce085</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7">
+      <x:c t="str">
+        <x:v>Sukanya</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Chulliparambil</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>200425170</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2019</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0001-01-01 12:00:00 AM</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>87035b63-5034-475c-b53d-59e076a268e5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8">
+      <x:c t="str">
         <x:v>MaryPravalika</x:v>
       </x:c>
       <x:c t="str">
@@ -145,10 +191,10 @@
         <x:v>1996-07-20 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>b0b2364c-63d5-4102-b1a9-067c19101bad</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7">
+        <x:v>68b99b2f-ef9e-42e3-8d75-bc05cac55153</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9">
       <x:c t="str">
         <x:v>Mostafizur</x:v>
       </x:c>
@@ -168,10 +214,10 @@
         <x:v>1994-07-11 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>2d636bdd-d894-4c69-9986-dd6646489f85</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8">
+        <x:v>f610672f-e74e-41cc-ae29-1c93e245e0cc</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10">
       <x:c t="str">
         <x:v>Ankita</x:v>
       </x:c>
@@ -191,10 +237,10 @@
         <x:v>1998-07-10 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>6bcad831-9b79-4466-b590-3b925ea0c06e</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9">
+        <x:v>4bd0dde2-37d7-4beb-b37f-2a1a6234823a</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11">
       <x:c t="str">
         <x:v>Prakash</x:v>
       </x:c>
@@ -214,10 +260,10 @@
         <x:v>1993-12-27 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>ef387b04-b547-4728-b6d4-68f99c2519ad</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10">
+        <x:v>497bf2bf-e90c-4687-8203-e0a7f21a695c</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12">
       <x:c t="str">
         <x:v>Mostafizur</x:v>
       </x:c>
@@ -237,10 +283,10 @@
         <x:v>1994-07-11 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>901fd1b2-3f72-43d7-acbc-77a90956ccdb</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11">
+        <x:v>3beba55d-6d57-4445-a0a8-fca4b9490362</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13">
       <x:c t="str">
         <x:v>Priyanka</x:v>
       </x:c>
@@ -260,10 +306,10 @@
         <x:v>1993-12-09 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>bd90be23-7cf9-4b32-8aea-d414bf16e6b9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12">
+        <x:v>68459cf8-3f24-4149-aaa0-f2d34821ee66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14">
       <x:c t="str">
         <x:v>Manpreet</x:v>
       </x:c>
@@ -283,10 +329,10 @@
         <x:v>1994-10-27 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>241fc527-6ff9-4f9f-9096-b82abf9675f2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13">
+        <x:v>cee6b152-8dfb-41ac-ae1c-912da857edbd</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15">
       <x:c t="str">
         <x:v>Pranav</x:v>
       </x:c>
@@ -306,10 +352,10 @@
         <x:v>1997-09-19 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>5d3d27c3-6cce-41c0-a252-fd0c8fc8ca9a</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14">
+        <x:v>579cbd82-100c-4333-b0e0-d9bcbe53a281</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16">
       <x:c t="str">
         <x:v>Kavya</x:v>
       </x:c>
@@ -329,10 +375,10 @@
         <x:v>1994-09-08 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>3131c379-b558-41d7-b3d7-d65cbd27a46d</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15">
+        <x:v>59fe3ff9-acda-4ac7-b702-ef2cd94b6c38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17">
       <x:c t="str">
         <x:v>Aditya</x:v>
       </x:c>
@@ -352,10 +398,10 @@
         <x:v>0001-01-01 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>b7f9fbee-1959-4580-b813-fbce888595e8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16">
+        <x:v>48b85ff5-b3f0-4e16-893e-8195f5ceba07</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18">
       <x:c t="str">
         <x:v>BalaPrathima</x:v>
       </x:c>
@@ -375,10 +421,10 @@
         <x:v>1996-03-03 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>5d328014-d2d0-43f5-a7ec-7ae1028b7c71</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17">
+        <x:v>e55f0b91-bd0e-42b9-87ec-e15d618a5bdf</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19">
       <x:c t="str">
         <x:v>Prajwal</x:v>
       </x:c>
@@ -398,10 +444,10 @@
         <x:v>0001-01-01 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>b6c5c267-db9d-493f-abe7-0420b6f341ee</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18">
+        <x:v>ab5d52d2-e967-415f-a69c-4ce8e2a3f3fd</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20">
       <x:c t="str">
         <x:v>Preet</x:v>
       </x:c>
@@ -421,10 +467,10 @@
         <x:v>1998-10-04 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>14b94b1c-b3ba-4a88-832e-aa20ab7f4bbe</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19">
+        <x:v>609eedd7-5b81-42a1-8ff5-46d103e232e4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
       <x:c t="str">
         <x:v>Bruno</x:v>
       </x:c>
@@ -444,10 +490,10 @@
         <x:v>1976-07-05 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>a0ad5236-ba68-42de-b4c6-07c5aa1c4779</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20">
+        <x:v>745fe7d3-d44e-4101-b171-048dce016488</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22">
       <x:c t="str">
         <x:v>Tugrul</x:v>
       </x:c>
@@ -467,10 +513,10 @@
         <x:v>1995-10-08 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>e3df57f2-3a79-4fed-a579-803ba3e24209</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21">
+        <x:v>89a5e9dc-086a-465b-a495-ce34fc4d7feb</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23">
       <x:c t="str">
         <x:v>Prajwal</x:v>
       </x:c>
@@ -490,10 +536,10 @@
         <x:v>1993-07-16 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>9d897971-e945-4367-9c89-1853473ca5e9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22">
+        <x:v>2a39364d-cf86-4961-ae6b-b41ca6cf59d1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24">
       <x:c t="str">
         <x:v>Pavel</x:v>
       </x:c>
@@ -513,10 +559,10 @@
         <x:v>1988-03-20 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>920f7b3c-e425-4a49-9b0b-5dd7b81f5206</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23">
+        <x:v>ca1149d5-07f5-442c-811e-414800a449c4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25">
       <x:c t="str">
         <x:v>swarnim</x:v>
       </x:c>
@@ -536,10 +582,10 @@
         <x:v>2020-01-05 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>00f66af7-ad2c-4389-946d-9fb739aeed92</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24">
+        <x:v>72bcb09e-3bd1-4fb9-b2da-fc2f9c70e661</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26">
       <x:c t="str">
         <x:v>Tugrul</x:v>
       </x:c>
@@ -559,10 +605,56 @@
         <x:v>1995-10-08 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>3910b052-f6b6-4eed-ba83-a6e4efc8fbea</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25">
+        <x:v>9214daa6-00f7-4d1d-8f3f-0c4f8e1db6a2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27">
+      <x:c t="str">
+        <x:v>Deena</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Joseinfo.docx</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>200447147</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2019</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0001-01-01 12:00:00 AM</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>87826563-4358-432f-acce-2b0f15cc7e5f</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28">
+      <x:c t="str">
+        <x:v>Deena</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Joseinfo.xlsx</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>200447147</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2019</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0001-01-01 12:00:00 AM</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>dc14364b-2d19-4e41-81d0-99b0999160be</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29">
       <x:c t="str">
         <x:v>Jay</x:v>
       </x:c>
@@ -582,10 +674,10 @@
         <x:v>1998-01-27 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>295ebf26-1e39-4839-8c80-91a1e253301d</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26">
+        <x:v>b164599c-4a22-4a3f-9606-88c3d77bda3d</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30">
       <x:c t="str">
         <x:v>HemaAbhinandu</x:v>
       </x:c>
@@ -605,10 +697,10 @@
         <x:v>1997-04-15 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>bfbd4c52-1f16-4084-8548-ff793ab33ec6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27">
+        <x:v>d7d2a8de-73b1-42d6-9523-0be4b5ef5f76</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31">
       <x:c t="str">
         <x:v>AkhilDas</x:v>
       </x:c>
@@ -628,10 +720,10 @@
         <x:v>1993-07-04 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>d2259b4d-71a7-4024-a5f1-96ed33da1a30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28">
+        <x:v>db5eaed8-43aa-4564-bc9b-f5667d5b91dc</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32">
       <x:c t="str">
         <x:v>Swathi</x:v>
       </x:c>
@@ -651,10 +743,56 @@
         <x:v>1992-04-05 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>3a0179f8-6ebb-4a00-9751-f8bbfed39a27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29">
+        <x:v>6e910743-c916-4a85-b66f-978e22695d38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33">
+      <x:c t="str">
+        <x:v>Swathi</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Palavalliinfo.docx</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>200447330</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2019</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0001-01-01 12:00:00 AM</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1cbde421-13e8-4454-b467-2e1d04002951</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34">
+      <x:c t="str">
+        <x:v>Swathi</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Palavalliinfo.xlsx</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>200447330</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2019</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0001-01-01 12:00:00 AM</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0f7c149e-302b-4515-a684-27d1d47cd6f6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35">
       <x:c t="str">
         <x:v>KavirajSingh</x:v>
       </x:c>
@@ -674,10 +812,10 @@
         <x:v>1994-09-22 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>3c0589dc-d9d4-41c4-bf34-26030ac1e3df</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30">
+        <x:v>d93d45bb-df34-4d5e-be20-b1d0c727caa5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36">
       <x:c t="str">
         <x:v>Althaf</x:v>
       </x:c>
@@ -697,10 +835,10 @@
         <x:v>1993-05-10 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>fe781fed-b47c-45c2-b2c5-bc9ccd4a1163</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31">
+        <x:v>3dca35ae-3b5c-4084-87be-74545f1fde8d</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37">
       <x:c t="str">
         <x:v>Nipin</x:v>
       </x:c>
@@ -720,10 +858,10 @@
         <x:v>1998-01-29 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>f62bed08-7188-4ace-84f2-63b71da25f95</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32">
+        <x:v>4a13449a-8994-42b0-9cb4-213b3d63de65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38">
       <x:c t="str">
         <x:v>Avi</x:v>
       </x:c>
@@ -743,10 +881,10 @@
         <x:v>0001-01-01 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>210f64ce-81f6-4f0a-8239-8ebf5b858024</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33">
+        <x:v>dd000f0e-db94-4385-b7ec-d94b9f64bccf</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39">
       <x:c t="str">
         <x:v>Kashish</x:v>
       </x:c>
@@ -766,10 +904,10 @@
         <x:v>1996-12-26 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>00aef6bf-50d2-4090-ad74-2a3275b6cc27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34">
+        <x:v>e4a03f51-9654-4683-acac-eeaa2c295b4c</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40">
       <x:c t="str">
         <x:v>Robert</x:v>
       </x:c>
@@ -789,10 +927,10 @@
         <x:v>1980-05-20 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>c10f4b4a-1cb6-441c-b38c-f96c09327eff</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35">
+        <x:v>5fcb77b9-d620-4364-b069-5cb158d490d4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41">
       <x:c t="str">
         <x:v>Sahiba</x:v>
       </x:c>
@@ -812,10 +950,10 @@
         <x:v>1994-08-23 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>5e0a86d5-a110-45d8-88f2-7d50ae54d94c</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36">
+        <x:v>c2ba577b-8204-4514-9169-51dafba86582</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42">
       <x:c t="str">
         <x:v>Sofiya</x:v>
       </x:c>
@@ -835,10 +973,10 @@
         <x:v>1993-09-22 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>5356d36f-9c63-4f9b-8de5-3639f87d2b8c</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37">
+        <x:v>f0cf822c-cf4e-402b-8b04-4da174cf0538</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43">
       <x:c t="str">
         <x:v>Sony</x:v>
       </x:c>
@@ -858,10 +996,10 @@
         <x:v>1994-04-15 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>ce055c4f-255e-47e2-88d5-cb85f8eb0697</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38">
+        <x:v>01fd1cc9-97a9-4cb0-adda-e0bfcb3c4e59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44">
       <x:c t="str">
         <x:v>Krishnapriya</x:v>
       </x:c>
@@ -881,10 +1019,10 @@
         <x:v>1992-12-31 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>401f349c-0c96-4b31-87ba-5a209c2c0cfa</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39">
+        <x:v>56a47de5-887f-43d9-87a9-7afb595ee974</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45">
       <x:c t="str">
         <x:v>SargunSingh</x:v>
       </x:c>
@@ -904,10 +1042,10 @@
         <x:v>1994-07-18 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>233904a2-81b8-42b4-a037-6e778d23d037</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40">
+        <x:v>e82b921c-6a9b-422b-93fe-28fcbb90c75f</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46">
       <x:c t="str">
         <x:v>Nikhil</x:v>
       </x:c>
@@ -927,10 +1065,10 @@
         <x:v>1997-11-30 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>01ddfbdb-7c9e-4f36-9f74-aca69d929864</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41">
+        <x:v>dbbbb448-4134-4b1b-8eae-8b6a2a52b88a</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47">
       <x:c t="str">
         <x:v>Gurminder</x:v>
       </x:c>
@@ -950,10 +1088,10 @@
         <x:v>1997-02-09 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>47e5985b-2167-434e-9d2e-355e7974f56b</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42">
+        <x:v>7eacbcc3-4be9-4141-8c02-a6f98e211402</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48">
       <x:c t="str">
         <x:v>Vrunda</x:v>
       </x:c>
@@ -973,10 +1111,10 @@
         <x:v>0001-01-01 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>6ce3b9e3-8929-439e-9d10-7d13c498bd2c</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="43">
+        <x:v>751509a9-e067-49ab-abd6-b8380d7a1112</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49">
       <x:c t="str">
         <x:v>Vrushabh</x:v>
       </x:c>
@@ -996,7 +1134,7 @@
         <x:v>1996-06-15 12:00:00 AM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>5edc4fe4-f3c5-493e-b0b8-ddc8d8e40190</x:v>
+        <x:v>e5e55d97-cb33-4995-82d6-6a083eb792fe</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
